--- a/chi_budg_documentation.xlsx
+++ b/chi_budg_documentation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\natra\Documents\ME_2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D952C5F-B738-44FA-9623-69169B382F29}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4148551-8541-4CD7-BC03-BF9A12137A55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26192" yWindow="-109" windowWidth="26301" windowHeight="14427" xr2:uid="{7C3E193E-8363-4EED-93A7-4C159F2BB674}"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="25377" windowHeight="14889" xr2:uid="{7C3E193E-8363-4EED-93A7-4C159F2BB674}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="132">
   <si>
     <t>POLICE BOARD</t>
   </si>
@@ -427,6 +427,9 @@
   </si>
   <si>
     <t>For Public Health borderline decisions: Andrea Gibson (CCHHS)</t>
+  </si>
+  <si>
+    <t>Law Enforcement</t>
   </si>
 </sst>
 </file>
@@ -858,8 +861,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFCF0181-0DE1-4B56-851E-59F0FEBFA0E4}">
   <dimension ref="A1:G88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="D81" sqref="D81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -1985,7 +1988,7 @@
         <v>113</v>
       </c>
       <c r="D77" t="s">
-        <v>41</v>
+        <v>131</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
@@ -1999,7 +2002,7 @@
         <v>63</v>
       </c>
       <c r="D78" t="s">
-        <v>41</v>
+        <v>131</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
@@ -2013,7 +2016,7 @@
         <v>63</v>
       </c>
       <c r="D79" t="s">
-        <v>41</v>
+        <v>131</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
@@ -2027,7 +2030,7 @@
         <v>63</v>
       </c>
       <c r="D80" t="s">
-        <v>41</v>
+        <v>131</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
